--- a/Documentation/8.0 Risk Assessment/Risk Management Log v2.1.xlsx
+++ b/Documentation/8.0 Risk Assessment/Risk Management Log v2.1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
   <si>
     <t xml:space="preserve">Risk ID </t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>HTTPS not implemented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re designing the databasse </t>
+  </si>
+  <si>
+    <t>Use project week to do this work as well as keep on top of iteration 3 (3/11/14)</t>
   </si>
 </sst>
 </file>
@@ -640,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -732,7 +738,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" ref="H4:H18" si="0">F4*G4</f>
+        <f t="shared" ref="H4:H19" si="0">F4*G4</f>
         <v>10</v>
       </c>
       <c r="I4" s="5" t="s">
@@ -755,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="6" t="str">
-        <f t="shared" ref="C5:C18" si="1">IF(H5&lt;=7, "Low Risk",IF(H5&gt;=17,"High Risk","Medium Risk"))</f>
+        <f t="shared" ref="C5:C19" si="1">IF(H5&lt;=7, "Low Risk",IF(H5&gt;=17,"High Risk","Medium Risk"))</f>
         <v>Low Risk</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1314,16 +1320,38 @@
       <c r="B19" s="8">
         <v>16</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="7"/>
+      <c r="C19" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Medium Risk</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="5">
+        <v>5</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="7">
+        <v>41952</v>
+      </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>

--- a/Documentation/8.0 Risk Assessment/Risk Management Log v2.1.xlsx
+++ b/Documentation/8.0 Risk Assessment/Risk Management Log v2.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="37060" windowHeight="19120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
   <si>
     <t xml:space="preserve">Risk ID </t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>Use project week to do this work as well as keep on top of iteration 3 (3/11/14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anyone can query our API's via POST request </t>
+  </si>
+  <si>
+    <t>Implement authentication tokens (6/11/14)</t>
   </si>
 </sst>
 </file>
@@ -646,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -738,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" ref="H4:H19" si="0">F4*G4</f>
+        <f t="shared" ref="H4:H20" si="0">F4*G4</f>
         <v>10</v>
       </c>
       <c r="I4" s="5" t="s">
@@ -761,7 +767,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="6" t="str">
-        <f t="shared" ref="C5:C19" si="1">IF(H5&lt;=7, "Low Risk",IF(H5&gt;=17,"High Risk","Medium Risk"))</f>
+        <f t="shared" ref="C5:C20" si="1">IF(H5&lt;=7, "Low Risk",IF(H5&gt;=17,"High Risk","Medium Risk"))</f>
         <v>Low Risk</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1312,7 +1318,9 @@
       <c r="K18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="L18" s="7"/>
+      <c r="L18" s="7">
+        <v>41992</v>
+      </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
@@ -1359,16 +1367,38 @@
       <c r="B20" s="8">
         <v>17</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="7"/>
+      <c r="C20" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>High Risk</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="5">
+        <v>5</v>
+      </c>
+      <c r="G20" s="5">
+        <v>5</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" s="7">
+        <v>41957</v>
+      </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
     </row>
